--- a/data/excel/SystemSetting_ManageBanner.xlsx
+++ b/data/excel/SystemSetting_ManageBanner.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C1F66-7543-4022-9213-B4B71B6135FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D2157E-2ABF-466F-BEB4-D2B7802F0365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="20490" windowHeight="8850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="87">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -65,9 +66,6 @@
     <t>qlabs12345</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>ProductBanner</t>
   </si>
   <si>
@@ -287,16 +285,10 @@
     <t>Verify Manage Banner in System Setting for Insurance without selecting sales channel</t>
   </si>
   <si>
-    <t>KN2503</t>
-  </si>
-  <si>
-    <t>Ankur</t>
-  </si>
-  <si>
-    <t>Ankur@12345</t>
-  </si>
-  <si>
-    <t>//login.konnect.travel/backoffice</t>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
   </si>
 </sst>
 </file>
@@ -380,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -422,7 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -707,7 +698,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,25 +739,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -786,36 +777,36 @@
         <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="5">
         <v>2</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7">
         <v>5</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -830,36 +821,36 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="7">
         <v>6</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -874,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -916,17 +907,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{56052430-6FDF-45F4-B139-1B4F69AC8839}">
       <formula1>"Flight,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{FED60B58-A42A-4E59-A875-9C0EA2FBFDEA}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{AB13C616-45BA-46EA-AF62-6D425F1DA89F}">
-      <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{4B93629F-7D61-46D1-A789-6BF9B07ABC63}">
-      <formula1>"Piyush_QL,ankur_ql"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{0F753172-97AD-4046-8693-E5BE8121D321}">
-      <formula1>"at,qlabs12345,merg123456"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{2E15F386-5011-499B-9A1C-D02C13229046}">
+      <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{9DEA9919-DDEF-461F-91A0-A740A3367EC7}">
+      <formula1>"Piyush_QL,ankur_ql,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{2728941B-5808-4BA8-BE7E-4551C66F6D94}">
+      <formula1>"at,qlabs12345,merg123456,KN2503"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{974A09CF-2D06-469F-9935-3FEE882FA2B1}">
+      <formula1>"Password@@12,Ankur@123456,9@6C6535C,Ankur@12345"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -935,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B63D26-93F5-450F-B227-1F546DEE6928}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,33 +972,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -1019,39 +1010,39 @@
         <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5">
         <v>4</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="9">
         <v>8</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -1063,39 +1054,39 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5">
         <v>2</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="9">
         <v>7</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -1107,37 +1098,37 @@
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -1149,39 +1140,39 @@
         <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -1193,39 +1184,39 @@
         <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -1237,39 +1228,39 @@
         <v>11</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5">
         <v>2</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -1281,39 +1272,39 @@
         <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1325,37 +1316,37 @@
         <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="5">
         <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1367,39 +1358,39 @@
         <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1411,39 +1402,39 @@
         <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -1455,39 +1446,39 @@
         <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="9">
         <v>8</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -1499,39 +1490,39 @@
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="5">
         <v>2</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="9">
         <v>7</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -1543,39 +1534,39 @@
         <v>11</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="5">
         <v>2</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -1587,39 +1578,39 @@
         <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="5">
         <v>2</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="9">
         <v>7</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -1631,54 +1622,52 @@
         <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="J16" s="5">
         <v>2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" s="9">
         <v>8</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="14"/>
+      <c r="K17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="11">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 E16" xr:uid="{0F753172-97AD-4046-8693-E5BE8121D321}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15" xr:uid="{427EF916-64FF-40C7-BDE2-7177CFB99175}">
       <formula1>"at,qlabs12345,merg123456,qlabs1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15" xr:uid="{BDA0C116-96CE-4EDE-9A92-0A42079F013A}">
-      <formula1>"Password@123,Ankur@12345,Password@121"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16" xr:uid="{4B93629F-7D61-46D1-A789-6BF9B07ABC63}">
       <formula1>"Piyush_QL,ankur_ql"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16" xr:uid="{AB13C616-45BA-46EA-AF62-6D425F1DA89F}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G16" xr:uid="{FED60B58-A42A-4E59-A875-9C0EA2FBFDEA}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H15" xr:uid="{56052430-6FDF-45F4-B139-1B4F69AC8839}">
       <formula1>"Flight,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
     </dataValidation>
@@ -1693,6 +1682,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16" xr:uid="{A6B7AB54-2842-4B22-ACF0-29572873EA44}">
       <formula1>"Flight,Select Product,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{1BC63F44-03CD-4FC9-AC4F-DAA202BB6708}">
+      <formula1>"Password@@12,Ankur@123456,9@6C6535C,Ankur@12345"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F501AB24-C474-48C4-B8D2-AE8E486829BE}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,201 +1733,201 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5">
         <v>4</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="9">
         <v>8</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="5">
         <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="9">
         <v>7</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="15">
-        <v>9</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="15">
-        <v>10</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1952,9 +1944,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{0E2B8CC6-C249-47F1-BE3F-DF742603C985}">
       <formula1>"Flight,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{AA397BA9-C52E-4C86-BCBC-1F3932433554}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{F9C15863-C213-47EC-B744-26AF3A8962F9}">
       <formula1>"at,qlabs12345,merg123456,KN2503"</formula1>
     </dataValidation>
@@ -1963,6 +1952,138 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{1A669354-00CD-4A2E-88E1-C3263CEDE66F}">
       <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{F38CC2F0-A810-4619-93BD-67F251BCCD64}">
+      <formula1>"Password@@12,Ankur@123456,9@6C6535C,Ankur@12345"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EA831E-F9BD-4264-8E65-8AE58B57619A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9">
+        <v>4</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{33D1DF46-CB52-4B37-9739-7236C91A0E00}">
+      <formula1>"Password@@12,Ankur@123456,9@6C6535C,Ankur@12345"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E14E98E4-E30B-4507-BF44-8801822C56DF}">
+      <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{007A6F53-3726-49AC-B806-728879BBD2B0}">
+      <formula1>"Piyush_QL,ankur_ql,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{80BFC047-C42B-47D7-8089-EB98CA2B91A4}">
+      <formula1>"at,qlabs12345,merg123456,KN2503"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{0EB335AA-394E-43A8-BE3F-40845BC484B6}">
+      <formula1>"Flight,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{40B49348-489E-4C38-A289-9FFB2EEFE8B5}">
+      <formula1>"English,Hindi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{68E0DB29-C31E-4D35-AA4E-06F96E863F31}">
+      <formula1>"1,2,3,4,5,6,7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{D23FE172-0170-4E8C-A993-BF7DBC7E4BC2}">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
